--- a/Exercises/Data/PS4.xlsx
+++ b/Exercises/Data/PS4.xlsx
@@ -9,17 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17400" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17400" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Log" sheetId="1" r:id="rId1"/>
-    <sheet name="Fuel mix" sheetId="2" r:id="rId2"/>
+    <sheet name="FuelMix" sheetId="2" r:id="rId2"/>
     <sheet name="Fundamentals" sheetId="3" r:id="rId3"/>
     <sheet name="Load" sheetId="5" r:id="rId4"/>
-    <sheet name="MWP" sheetId="9" r:id="rId5"/>
-    <sheet name="Generator" sheetId="6" r:id="rId6"/>
-    <sheet name="GeneratorCategories" sheetId="7" r:id="rId7"/>
-    <sheet name="HourlyVariation" sheetId="8" r:id="rId8"/>
+    <sheet name="Generator" sheetId="6" r:id="rId5"/>
+    <sheet name="GeneratorCategories" sheetId="7" r:id="rId6"/>
+    <sheet name="HourlyVariation" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="949" uniqueCount="345">
   <si>
     <t>Variable</t>
   </si>
@@ -1036,12 +1035,6 @@
   </si>
   <si>
     <t>LoadVariation/LoadVariation</t>
-  </si>
-  <si>
-    <t>c1</t>
-  </si>
-  <si>
-    <t>MWP_LoadShedding</t>
   </si>
   <si>
     <t>yearly MWh</t>
@@ -1095,6 +1088,9 @@
   </si>
   <si>
     <t>MWP/MWP</t>
+  </si>
+  <si>
+    <t>MWP</t>
   </si>
 </sst>
 </file>
@@ -1447,7 +1443,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1493,7 +1489,7 @@
         <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -1501,7 +1497,7 @@
         <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -1522,26 +1518,26 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B9" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B10" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="B11" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
   </sheetData>
@@ -1555,7 +1551,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1705,7 +1701,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G289"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K27" sqref="K27"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1726,10 +1724,10 @@
         <v>19</v>
       </c>
       <c r="C1" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D1" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="E1" t="s">
         <v>332</v>
@@ -1755,7 +1753,7 @@
         <v>100</v>
       </c>
       <c r="E2" t="s">
-        <v>335</v>
+        <v>20</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>42</v>
@@ -1766,7 +1764,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E3" t="s">
-        <v>335</v>
+        <v>20</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>43</v>
@@ -1777,7 +1775,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E4" t="s">
-        <v>335</v>
+        <v>20</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>44</v>
@@ -1788,7 +1786,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E5" t="s">
-        <v>335</v>
+        <v>20</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>45</v>
@@ -1798,6 +1796,9 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>20</v>
+      </c>
       <c r="F6" s="5" t="s">
         <v>46</v>
       </c>
@@ -1806,6 +1807,9 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
+        <v>20</v>
+      </c>
       <c r="F7" s="5" t="s">
         <v>47</v>
       </c>
@@ -1814,6 +1818,9 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
+        <v>20</v>
+      </c>
       <c r="F8" s="5" t="s">
         <v>48</v>
       </c>
@@ -1822,6 +1829,9 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>20</v>
+      </c>
       <c r="F9" s="5" t="s">
         <v>49</v>
       </c>
@@ -1830,6 +1840,9 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E10" t="s">
+        <v>20</v>
+      </c>
       <c r="F10" s="5" t="s">
         <v>50</v>
       </c>
@@ -1838,6 +1851,9 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E11" t="s">
+        <v>20</v>
+      </c>
       <c r="F11" s="5" t="s">
         <v>51</v>
       </c>
@@ -1846,6 +1862,9 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E12" t="s">
+        <v>20</v>
+      </c>
       <c r="F12" s="5" t="s">
         <v>52</v>
       </c>
@@ -1854,6 +1873,9 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E13" t="s">
+        <v>20</v>
+      </c>
       <c r="F13" s="5" t="s">
         <v>53</v>
       </c>
@@ -1862,6 +1884,9 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E14" t="s">
+        <v>20</v>
+      </c>
       <c r="F14" s="5" t="s">
         <v>54</v>
       </c>
@@ -1870,6 +1895,9 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E15" t="s">
+        <v>20</v>
+      </c>
       <c r="F15" s="5" t="s">
         <v>55</v>
       </c>
@@ -1878,6 +1906,9 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E16" t="s">
+        <v>20</v>
+      </c>
       <c r="F16" s="5" t="s">
         <v>56</v>
       </c>
@@ -1885,7 +1916,10 @@
         <v>4.8955691102723613E-3</v>
       </c>
     </row>
-    <row r="17" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E17" t="s">
+        <v>20</v>
+      </c>
       <c r="F17" s="5" t="s">
         <v>57</v>
       </c>
@@ -1893,7 +1927,10 @@
         <v>4.816847586811444E-3</v>
       </c>
     </row>
-    <row r="18" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E18" t="s">
+        <v>20</v>
+      </c>
       <c r="F18" s="5" t="s">
         <v>58</v>
       </c>
@@ -1901,7 +1938,10 @@
         <v>4.9597811471855146E-3</v>
       </c>
     </row>
-    <row r="19" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E19" t="s">
+        <v>20</v>
+      </c>
       <c r="F19" s="5" t="s">
         <v>59</v>
       </c>
@@ -1909,7 +1949,10 @@
         <v>5.3169356030095477E-3</v>
       </c>
     </row>
-    <row r="20" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E20" t="s">
+        <v>20</v>
+      </c>
       <c r="F20" s="5" t="s">
         <v>60</v>
       </c>
@@ -1917,7 +1960,10 @@
         <v>5.2166812718165067E-3</v>
       </c>
     </row>
-    <row r="21" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E21" t="s">
+        <v>20</v>
+      </c>
       <c r="F21" s="5" t="s">
         <v>61</v>
       </c>
@@ -1925,7 +1971,10 @@
         <v>4.9570646184321316E-3</v>
       </c>
     </row>
-    <row r="22" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E22" t="s">
+        <v>20</v>
+      </c>
       <c r="F22" s="5" t="s">
         <v>62</v>
       </c>
@@ -1933,7 +1982,10 @@
         <v>4.6628353651733505E-3</v>
       </c>
     </row>
-    <row r="23" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E23" t="s">
+        <v>20</v>
+      </c>
       <c r="F23" s="5" t="s">
         <v>63</v>
       </c>
@@ -1941,7 +1993,10 @@
         <v>3.4356640286040967E-3</v>
       </c>
     </row>
-    <row r="24" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E24" t="s">
+        <v>20</v>
+      </c>
       <c r="F24" s="5" t="s">
         <v>64</v>
       </c>
@@ -1949,7 +2004,10 @@
         <v>3.2454645206045404E-3</v>
       </c>
     </row>
-    <row r="25" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E25" t="s">
+        <v>20</v>
+      </c>
       <c r="F25" s="5" t="s">
         <v>65</v>
       </c>
@@ -1957,7 +2015,10 @@
         <v>3.017218038748536E-3</v>
       </c>
     </row>
-    <row r="26" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E26" t="s">
+        <v>20</v>
+      </c>
       <c r="F26" s="5" t="s">
         <v>66</v>
       </c>
@@ -1965,7 +2026,10 @@
         <v>2.4882646966897133E-3</v>
       </c>
     </row>
-    <row r="27" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E27" t="s">
+        <v>20</v>
+      </c>
       <c r="F27" s="5" t="s">
         <v>67</v>
       </c>
@@ -1973,7 +2037,10 @@
         <v>2.3851820868030617E-3</v>
       </c>
     </row>
-    <row r="28" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E28" t="s">
+        <v>20</v>
+      </c>
       <c r="F28" s="5" t="s">
         <v>68</v>
       </c>
@@ -1981,7 +2048,10 @@
         <v>2.3344603602331758E-3</v>
       </c>
     </row>
-    <row r="29" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E29" t="s">
+        <v>20</v>
+      </c>
       <c r="F29" s="5" t="s">
         <v>69</v>
       </c>
@@ -1989,7 +2059,10 @@
         <v>2.3224827014335647E-3</v>
       </c>
     </row>
-    <row r="30" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E30" t="s">
+        <v>20</v>
+      </c>
       <c r="F30" s="5" t="s">
         <v>70</v>
       </c>
@@ -1997,7 +2070,10 @@
         <v>2.3400377084334895E-3</v>
       </c>
     </row>
-    <row r="31" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E31" t="s">
+        <v>20</v>
+      </c>
       <c r="F31" s="5" t="s">
         <v>71</v>
       </c>
@@ -2005,7 +2081,10 @@
         <v>2.4054630051219589E-3</v>
       </c>
     </row>
-    <row r="32" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E32" t="s">
+        <v>20</v>
+      </c>
       <c r="F32" s="5" t="s">
         <v>72</v>
       </c>
@@ -2013,7 +2092,10 @@
         <v>2.5466964480067187E-3</v>
       </c>
     </row>
-    <row r="33" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E33" t="s">
+        <v>20</v>
+      </c>
       <c r="F33" s="5" t="s">
         <v>73</v>
       </c>
@@ -2021,7 +2103,10 @@
         <v>4.1852504731864481E-3</v>
       </c>
     </row>
-    <row r="34" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E34" t="s">
+        <v>20</v>
+      </c>
       <c r="F34" s="5" t="s">
         <v>74</v>
       </c>
@@ -2029,7 +2114,10 @@
         <v>4.3499642718099127E-3</v>
       </c>
     </row>
-    <row r="35" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E35" t="s">
+        <v>20</v>
+      </c>
       <c r="F35" s="5" t="s">
         <v>75</v>
       </c>
@@ -2037,7 +2125,10 @@
         <v>4.3523818090196358E-3</v>
       </c>
     </row>
-    <row r="36" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E36" t="s">
+        <v>20</v>
+      </c>
       <c r="F36" s="5" t="s">
         <v>76</v>
       </c>
@@ -2045,7 +2136,10 @@
         <v>4.4010514612892225E-3</v>
       </c>
     </row>
-    <row r="37" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E37" t="s">
+        <v>20</v>
+      </c>
       <c r="F37" s="5" t="s">
         <v>77</v>
       </c>
@@ -2053,7 +2147,10 @@
         <v>4.3744695960462911E-3</v>
       </c>
     </row>
-    <row r="38" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E38" t="s">
+        <v>20</v>
+      </c>
       <c r="F38" s="5" t="s">
         <v>78</v>
       </c>
@@ -2061,7 +2158,10 @@
         <v>4.2967125612233268E-3</v>
       </c>
     </row>
-    <row r="39" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E39" t="s">
+        <v>20</v>
+      </c>
       <c r="F39" s="5" t="s">
         <v>79</v>
       </c>
@@ -2069,7 +2169,10 @@
         <v>4.2986639466022812E-3</v>
       </c>
     </row>
-    <row r="40" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E40" t="s">
+        <v>20</v>
+      </c>
       <c r="F40" s="5" t="s">
         <v>80</v>
       </c>
@@ -2077,7 +2180,10 @@
         <v>4.2488022697952359E-3</v>
       </c>
     </row>
-    <row r="41" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E41" t="s">
+        <v>20</v>
+      </c>
       <c r="F41" s="5" t="s">
         <v>81</v>
       </c>
@@ -2085,7 +2191,10 @@
         <v>4.1874833193102359E-3</v>
       </c>
     </row>
-    <row r="42" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E42" t="s">
+        <v>20</v>
+      </c>
       <c r="F42" s="5" t="s">
         <v>82</v>
       </c>
@@ -2093,7 +2202,10 @@
         <v>4.3320548531077885E-3</v>
       </c>
     </row>
-    <row r="43" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E43" t="s">
+        <v>20</v>
+      </c>
       <c r="F43" s="5" t="s">
         <v>83</v>
       </c>
@@ -2101,7 +2213,10 @@
         <v>4.6203868632193508E-3</v>
       </c>
     </row>
-    <row r="44" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E44" t="s">
+        <v>20</v>
+      </c>
       <c r="F44" s="5" t="s">
         <v>84</v>
       </c>
@@ -2109,7 +2224,10 @@
         <v>4.4587752516861527E-3</v>
       </c>
     </row>
-    <row r="45" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E45" t="s">
+        <v>20</v>
+      </c>
       <c r="F45" s="5" t="s">
         <v>85</v>
       </c>
@@ -2117,7 +2235,10 @@
         <v>4.1822101395887533E-3</v>
       </c>
     </row>
-    <row r="46" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E46" t="s">
+        <v>20</v>
+      </c>
       <c r="F46" s="5" t="s">
         <v>86</v>
       </c>
@@ -2125,7 +2246,10 @@
         <v>3.9096460689465838E-3</v>
       </c>
     </row>
-    <row r="47" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E47" t="s">
+        <v>20</v>
+      </c>
       <c r="F47" s="5" t="s">
         <v>87</v>
       </c>
@@ -2133,7 +2257,10 @@
         <v>3.023976495185206E-3</v>
       </c>
     </row>
-    <row r="48" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E48" t="s">
+        <v>20</v>
+      </c>
       <c r="F48" s="5" t="s">
         <v>88</v>
       </c>
@@ -2141,7 +2268,10 @@
         <v>2.8323537085535961E-3</v>
       </c>
     </row>
-    <row r="49" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E49" t="s">
+        <v>20</v>
+      </c>
       <c r="F49" s="5" t="s">
         <v>89</v>
       </c>
@@ -2149,7 +2279,10 @@
         <v>2.6310083652155941E-3</v>
       </c>
     </row>
-    <row r="50" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E50" t="s">
+        <v>20</v>
+      </c>
       <c r="F50" s="5" t="s">
         <v>90</v>
       </c>
@@ -2157,7 +2290,10 @@
         <v>2.6599370138562384E-3</v>
       </c>
     </row>
-    <row r="51" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E51" t="s">
+        <v>20</v>
+      </c>
       <c r="F51" s="5" t="s">
         <v>91</v>
       </c>
@@ -2165,7 +2301,10 @@
         <v>2.5457246067106397E-3</v>
       </c>
     </row>
-    <row r="52" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E52" t="s">
+        <v>20</v>
+      </c>
       <c r="F52" s="5" t="s">
         <v>92</v>
       </c>
@@ -2173,7 +2312,10 @@
         <v>2.4901054889466898E-3</v>
       </c>
     </row>
-    <row r="53" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E53" t="s">
+        <v>20</v>
+      </c>
       <c r="F53" s="5" t="s">
         <v>93</v>
       </c>
@@ -2181,7 +2323,10 @@
         <v>2.4726791965344217E-3</v>
       </c>
     </row>
-    <row r="54" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E54" t="s">
+        <v>20</v>
+      </c>
       <c r="F54" s="5" t="s">
         <v>94</v>
       </c>
@@ -2189,7 +2334,10 @@
         <v>2.4765217532682167E-3</v>
       </c>
     </row>
-    <row r="55" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E55" t="s">
+        <v>20</v>
+      </c>
       <c r="F55" s="5" t="s">
         <v>95</v>
       </c>
@@ -2197,7 +2345,10 @@
         <v>2.5217500520363922E-3</v>
       </c>
     </row>
-    <row r="56" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E56" t="s">
+        <v>20</v>
+      </c>
       <c r="F56" s="5" t="s">
         <v>96</v>
       </c>
@@ -2205,7 +2356,10 @@
         <v>2.6696156917812384E-3</v>
       </c>
     </row>
-    <row r="57" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E57" t="s">
+        <v>20</v>
+      </c>
       <c r="F57" s="5" t="s">
         <v>97</v>
       </c>
@@ -2213,7 +2367,10 @@
         <v>4.3079604554369239E-3</v>
       </c>
     </row>
-    <row r="58" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E58" t="s">
+        <v>20</v>
+      </c>
       <c r="F58" s="5" t="s">
         <v>98</v>
       </c>
@@ -2221,7 +2378,10 @@
         <v>4.4652794024335595E-3</v>
       </c>
     </row>
-    <row r="59" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E59" t="s">
+        <v>20</v>
+      </c>
       <c r="F59" s="5" t="s">
         <v>99</v>
       </c>
@@ -2229,7 +2389,10 @@
         <v>4.4542281890566906E-3</v>
       </c>
     </row>
-    <row r="60" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E60" t="s">
+        <v>20</v>
+      </c>
       <c r="F60" s="5" t="s">
         <v>100</v>
       </c>
@@ -2237,7 +2400,10 @@
         <v>4.4856735748329693E-3</v>
       </c>
     </row>
-    <row r="61" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E61" t="s">
+        <v>20</v>
+      </c>
       <c r="F61" s="5" t="s">
         <v>101</v>
       </c>
@@ -2245,7 +2411,10 @@
         <v>4.4457990652015207E-3</v>
       </c>
     </row>
-    <row r="62" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E62" t="s">
+        <v>20</v>
+      </c>
       <c r="F62" s="5" t="s">
         <v>102</v>
       </c>
@@ -2253,7 +2422,10 @@
         <v>4.3567292022090309E-3</v>
       </c>
     </row>
-    <row r="63" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E63" t="s">
+        <v>20</v>
+      </c>
       <c r="F63" s="5" t="s">
         <v>103</v>
       </c>
@@ -2261,7 +2433,10 @@
         <v>4.3539027805572046E-3</v>
       </c>
     </row>
-    <row r="64" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E64" t="s">
+        <v>20</v>
+      </c>
       <c r="F64" s="5" t="s">
         <v>104</v>
       </c>
@@ -2269,7 +2444,10 @@
         <v>4.2994992276544543E-3</v>
       </c>
     </row>
-    <row r="65" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E65" t="s">
+        <v>20</v>
+      </c>
       <c r="F65" s="5" t="s">
         <v>105</v>
       </c>
@@ -2277,7 +2455,10 @@
         <v>4.2139887723322538E-3</v>
       </c>
     </row>
-    <row r="66" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E66" t="s">
+        <v>20</v>
+      </c>
       <c r="F66" s="5" t="s">
         <v>106</v>
       </c>
@@ -2285,7 +2466,10 @@
         <v>4.3230026025876146E-3</v>
       </c>
     </row>
-    <row r="67" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E67" t="s">
+        <v>20</v>
+      </c>
       <c r="F67" s="5" t="s">
         <v>107</v>
       </c>
@@ -2293,7 +2477,10 @@
         <v>4.640443981204917E-3</v>
       </c>
     </row>
-    <row r="68" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E68" t="s">
+        <v>20</v>
+      </c>
       <c r="F68" s="5" t="s">
         <v>108</v>
       </c>
@@ -2301,7 +2488,10 @@
         <v>4.5643102881416384E-3</v>
       </c>
     </row>
-    <row r="69" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E69" t="s">
+        <v>20</v>
+      </c>
       <c r="F69" s="5" t="s">
         <v>109</v>
       </c>
@@ -2309,7 +2499,10 @@
         <v>4.3505677121582331E-3</v>
       </c>
     </row>
-    <row r="70" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E70" t="s">
+        <v>20</v>
+      </c>
       <c r="F70" s="5" t="s">
         <v>110</v>
       </c>
@@ -2317,7 +2510,10 @@
         <v>4.1049364288462606E-3</v>
       </c>
     </row>
-    <row r="71" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E71" t="s">
+        <v>20</v>
+      </c>
       <c r="F71" s="5" t="s">
         <v>111</v>
       </c>
@@ -2325,7 +2521,10 @@
         <v>3.8509936624723405E-3</v>
       </c>
     </row>
-    <row r="72" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E72" t="s">
+        <v>20</v>
+      </c>
       <c r="F72" s="5" t="s">
         <v>112</v>
       </c>
@@ -2333,7 +2532,10 @@
         <v>2.9666577483005983E-3</v>
       </c>
     </row>
-    <row r="73" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E73" t="s">
+        <v>20</v>
+      </c>
       <c r="F73" s="5" t="s">
         <v>113</v>
       </c>
@@ -2341,7 +2543,10 @@
         <v>2.7777853167010825E-3</v>
       </c>
     </row>
-    <row r="74" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E74" t="s">
+        <v>20</v>
+      </c>
       <c r="F74" s="5" t="s">
         <v>114</v>
       </c>
@@ -2349,7 +2554,10 @@
         <v>2.3912574638247359E-3</v>
       </c>
     </row>
-    <row r="75" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E75" t="s">
+        <v>20</v>
+      </c>
       <c r="F75" s="5" t="s">
         <v>115</v>
       </c>
@@ -2357,7 +2565,10 @@
         <v>2.2865385075209717E-3</v>
       </c>
     </row>
-    <row r="76" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E76" t="s">
+        <v>20</v>
+      </c>
       <c r="F76" s="5" t="s">
         <v>116</v>
       </c>
@@ -2365,7 +2576,10 @@
         <v>2.2325935869096187E-3</v>
       </c>
     </row>
-    <row r="77" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E77" t="s">
+        <v>20</v>
+      </c>
       <c r="F77" s="5" t="s">
         <v>117</v>
       </c>
@@ -2373,7 +2587,10 @@
         <v>2.2111185709220251E-3</v>
       </c>
     </row>
-    <row r="78" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E78" t="s">
+        <v>20</v>
+      </c>
       <c r="F78" s="5" t="s">
         <v>118</v>
       </c>
@@ -2381,7 +2598,10 @@
         <v>2.2002499728497548E-3</v>
       </c>
     </row>
-    <row r="79" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E79" t="s">
+        <v>20</v>
+      </c>
       <c r="F79" s="5" t="s">
         <v>119</v>
       </c>
@@ -2389,7 +2609,10 @@
         <v>2.2070181329851214E-3</v>
       </c>
     </row>
-    <row r="80" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E80" t="s">
+        <v>20</v>
+      </c>
       <c r="F80" s="5" t="s">
         <v>120</v>
       </c>
@@ -2397,7 +2620,10 @@
         <v>2.2593512798077097E-3</v>
       </c>
     </row>
-    <row r="81" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E81" t="s">
+        <v>20</v>
+      </c>
       <c r="F81" s="5" t="s">
         <v>121</v>
       </c>
@@ -2405,7 +2631,10 @@
         <v>3.8953194610938297E-3</v>
       </c>
     </row>
-    <row r="82" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E82" t="s">
+        <v>20</v>
+      </c>
       <c r="F82" s="5" t="s">
         <v>122</v>
       </c>
@@ -2413,7 +2642,10 @@
         <v>4.0926530786366874E-3</v>
       </c>
     </row>
-    <row r="83" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E83" t="s">
+        <v>20</v>
+      </c>
       <c r="F83" s="5" t="s">
         <v>123</v>
       </c>
@@ -2421,7 +2653,10 @@
         <v>4.1039508951854998E-3</v>
       </c>
     </row>
-    <row r="84" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E84" t="s">
+        <v>20</v>
+      </c>
       <c r="F84" s="5" t="s">
         <v>124</v>
       </c>
@@ -2429,7 +2664,10 @@
         <v>4.1535874763024656E-3</v>
       </c>
     </row>
-    <row r="85" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E85" t="s">
+        <v>20</v>
+      </c>
       <c r="F85" s="5" t="s">
         <v>125</v>
       </c>
@@ -2437,7 +2675,10 @@
         <v>4.1263942330995104E-3</v>
       </c>
     </row>
-    <row r="86" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E86" t="s">
+        <v>20</v>
+      </c>
       <c r="F86" s="5" t="s">
         <v>126</v>
       </c>
@@ -2445,7 +2686,10 @@
         <v>4.0424023011299617E-3</v>
       </c>
     </row>
-    <row r="87" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E87" t="s">
+        <v>20</v>
+      </c>
       <c r="F87" s="5" t="s">
         <v>127</v>
       </c>
@@ -2453,7 +2697,10 @@
         <v>4.037587525934045E-3</v>
       </c>
     </row>
-    <row r="88" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E88" t="s">
+        <v>20</v>
+      </c>
       <c r="F88" s="5" t="s">
         <v>128</v>
       </c>
@@ -2461,7 +2708,10 @@
         <v>3.9515454859972085E-3</v>
       </c>
     </row>
-    <row r="89" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E89" t="s">
+        <v>20</v>
+      </c>
       <c r="F89" s="5" t="s">
         <v>129</v>
       </c>
@@ -2469,7 +2719,10 @@
         <v>3.8120187963395728E-3</v>
       </c>
     </row>
-    <row r="90" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E90" t="s">
+        <v>20</v>
+      </c>
       <c r="F90" s="5" t="s">
         <v>130</v>
       </c>
@@ -2477,7 +2730,10 @@
         <v>3.792392281656406E-3</v>
       </c>
     </row>
-    <row r="91" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E91" t="s">
+        <v>20</v>
+      </c>
       <c r="F91" s="5" t="s">
         <v>131</v>
       </c>
@@ -2485,7 +2741,10 @@
         <v>4.0006826863822741E-3</v>
       </c>
     </row>
-    <row r="92" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E92" t="s">
+        <v>20</v>
+      </c>
       <c r="F92" s="5" t="s">
         <v>132</v>
       </c>
@@ -2493,7 +2752,10 @@
         <v>3.9467511737348547E-3</v>
       </c>
     </row>
-    <row r="93" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E93" t="s">
+        <v>20</v>
+      </c>
       <c r="F93" s="5" t="s">
         <v>133</v>
       </c>
@@ -2501,7 +2763,10 @@
         <v>3.8116804668444828E-3</v>
       </c>
     </row>
-    <row r="94" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E94" t="s">
+        <v>20</v>
+      </c>
       <c r="F94" s="5" t="s">
         <v>134</v>
       </c>
@@ -2509,7 +2774,10 @@
         <v>3.6740079030723335E-3</v>
       </c>
     </row>
-    <row r="95" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E95" t="s">
+        <v>20</v>
+      </c>
       <c r="F95" s="5" t="s">
         <v>135</v>
       </c>
@@ -2517,7 +2785,10 @@
         <v>3.5122367395930068E-3</v>
       </c>
     </row>
-    <row r="96" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E96" t="s">
+        <v>20</v>
+      </c>
       <c r="F96" s="5" t="s">
         <v>136</v>
       </c>
@@ -2525,7 +2796,10 @@
         <v>2.6758601817816834E-3</v>
       </c>
     </row>
-    <row r="97" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E97" t="s">
+        <v>20</v>
+      </c>
       <c r="F97" s="5" t="s">
         <v>137</v>
       </c>
@@ -2533,7 +2807,10 @@
         <v>2.5215151984044207E-3</v>
       </c>
     </row>
-    <row r="98" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E98" t="s">
+        <v>20</v>
+      </c>
       <c r="F98" s="5" t="s">
         <v>138</v>
       </c>
@@ -2541,7 +2818,10 @@
         <v>2.4669451270950761E-3</v>
       </c>
     </row>
-    <row r="99" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E99" t="s">
+        <v>20</v>
+      </c>
       <c r="F99" s="5" t="s">
         <v>139</v>
       </c>
@@ -2549,7 +2829,10 @@
         <v>2.3522174117822045E-3</v>
       </c>
     </row>
-    <row r="100" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E100" t="s">
+        <v>20</v>
+      </c>
       <c r="F100" s="5" t="s">
         <v>140</v>
       </c>
@@ -2557,7 +2840,10 @@
         <v>2.2926748854973566E-3</v>
       </c>
     </row>
-    <row r="101" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E101" t="s">
+        <v>20</v>
+      </c>
       <c r="F101" s="5" t="s">
         <v>141</v>
       </c>
@@ -2565,7 +2851,10 @@
         <v>2.2677166212263793E-3</v>
       </c>
     </row>
-    <row r="102" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E102" t="s">
+        <v>20</v>
+      </c>
       <c r="F102" s="5" t="s">
         <v>142</v>
       </c>
@@ -2573,7 +2862,10 @@
         <v>2.2505777534818435E-3</v>
       </c>
     </row>
-    <row r="103" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E103" t="s">
+        <v>20</v>
+      </c>
       <c r="F103" s="5" t="s">
         <v>143</v>
       </c>
@@ -2581,7 +2873,10 @@
         <v>2.2458027823664961E-3</v>
       </c>
     </row>
-    <row r="104" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E104" t="s">
+        <v>20</v>
+      </c>
       <c r="F104" s="5" t="s">
         <v>144</v>
       </c>
@@ -2589,7 +2884,10 @@
         <v>2.3069638939988537E-3</v>
       </c>
     </row>
-    <row r="105" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E105" t="s">
+        <v>20</v>
+      </c>
       <c r="F105" s="5" t="s">
         <v>145</v>
       </c>
@@ -2597,7 +2895,10 @@
         <v>3.7471242000839755E-3</v>
       </c>
     </row>
-    <row r="106" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E106" t="s">
+        <v>20</v>
+      </c>
       <c r="F106" s="5" t="s">
         <v>146</v>
       </c>
@@ -2605,7 +2906,10 @@
         <v>3.9672023750345247E-3</v>
       </c>
     </row>
-    <row r="107" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E107" t="s">
+        <v>20</v>
+      </c>
       <c r="F107" s="5" t="s">
         <v>147</v>
       </c>
@@ -2613,7 +2917,10 @@
         <v>4.0105880962979373E-3</v>
       </c>
     </row>
-    <row r="108" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E108" t="s">
+        <v>20</v>
+      </c>
       <c r="F108" s="5" t="s">
         <v>148</v>
       </c>
@@ -2621,7 +2928,10 @@
         <v>4.0728511912615454E-3</v>
       </c>
     </row>
-    <row r="109" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E109" t="s">
+        <v>20</v>
+      </c>
       <c r="F109" s="5" t="s">
         <v>149</v>
       </c>
@@ -2629,7 +2939,10 @@
         <v>4.0485820234013124E-3</v>
       </c>
     </row>
-    <row r="110" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E110" t="s">
+        <v>20</v>
+      </c>
       <c r="F110" s="5" t="s">
         <v>150</v>
       </c>
@@ -2637,7 +2950,10 @@
         <v>3.9672508558944927E-3</v>
       </c>
     </row>
-    <row r="111" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E111" t="s">
+        <v>20</v>
+      </c>
       <c r="F111" s="5" t="s">
         <v>151</v>
       </c>
@@ -2645,7 +2961,10 @@
         <v>3.9605203931676698E-3</v>
       </c>
     </row>
-    <row r="112" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E112" t="s">
+        <v>20</v>
+      </c>
       <c r="F112" s="5" t="s">
         <v>152</v>
       </c>
@@ -2653,7 +2972,10 @@
         <v>3.8833375329352707E-3</v>
       </c>
     </row>
-    <row r="113" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E113" t="s">
+        <v>20</v>
+      </c>
       <c r="F113" s="5" t="s">
         <v>153</v>
       </c>
@@ -2661,7 +2983,10 @@
         <v>3.7603796737883752E-3</v>
       </c>
     </row>
-    <row r="114" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E114" t="s">
+        <v>20</v>
+      </c>
       <c r="F114" s="5" t="s">
         <v>154</v>
       </c>
@@ -2669,7 +2994,10 @@
         <v>3.7210272348090416E-3</v>
       </c>
     </row>
-    <row r="115" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E115" t="s">
+        <v>20</v>
+      </c>
       <c r="F115" s="5" t="s">
         <v>155</v>
       </c>
@@ -2677,7 +3005,10 @@
         <v>3.8879518528031494E-3</v>
       </c>
     </row>
-    <row r="116" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E116" t="s">
+        <v>20</v>
+      </c>
       <c r="F116" s="5" t="s">
         <v>156</v>
       </c>
@@ -2685,7 +3016,10 @@
         <v>3.8229070696130657E-3</v>
       </c>
     </row>
-    <row r="117" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E117" t="s">
+        <v>20</v>
+      </c>
       <c r="F117" s="5" t="s">
         <v>157</v>
       </c>
@@ -2693,7 +3027,10 @@
         <v>3.677904335912851E-3</v>
       </c>
     </row>
-    <row r="118" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E118" t="s">
+        <v>20</v>
+      </c>
       <c r="F118" s="5" t="s">
         <v>158</v>
       </c>
@@ -2701,7 +3038,10 @@
         <v>3.5322776020356599E-3</v>
       </c>
     </row>
-    <row r="119" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E119" t="s">
+        <v>20</v>
+      </c>
       <c r="F119" s="5" t="s">
         <v>159</v>
       </c>
@@ -2709,7 +3049,10 @@
         <v>2.7101313467469651E-3</v>
       </c>
     </row>
-    <row r="120" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E120" t="s">
+        <v>20</v>
+      </c>
       <c r="F120" s="5" t="s">
         <v>160</v>
       </c>
@@ -2717,7 +3060,10 @@
         <v>2.6756700157335488E-3</v>
       </c>
     </row>
-    <row r="121" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E121" t="s">
+        <v>20</v>
+      </c>
       <c r="F121" s="5" t="s">
         <v>161</v>
       </c>
@@ -2725,7 +3071,10 @@
         <v>2.5500598699385044E-3</v>
       </c>
     </row>
-    <row r="122" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E122" t="s">
+        <v>20</v>
+      </c>
       <c r="F122" s="5" t="s">
         <v>162</v>
       </c>
@@ -2733,7 +3082,10 @@
         <v>2.3406860308800926E-3</v>
       </c>
     </row>
-    <row r="123" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E123" t="s">
+        <v>20</v>
+      </c>
       <c r="F123" s="5" t="s">
         <v>163</v>
       </c>
@@ -2741,7 +3093,10 @@
         <v>2.2276499630998672E-3</v>
       </c>
     </row>
-    <row r="124" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E124" t="s">
+        <v>20</v>
+      </c>
       <c r="F124" s="5" t="s">
         <v>164</v>
       </c>
@@ -2749,7 +3104,10 @@
         <v>2.1672881861543925E-3</v>
       </c>
     </row>
-    <row r="125" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E125" t="s">
+        <v>20</v>
+      </c>
       <c r="F125" s="5" t="s">
         <v>165</v>
       </c>
@@ -2757,7 +3115,10 @@
         <v>2.1399507850210528E-3</v>
       </c>
     </row>
-    <row r="126" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E126" t="s">
+        <v>20</v>
+      </c>
       <c r="F126" s="5" t="s">
         <v>166</v>
       </c>
@@ -2765,7 +3126,10 @@
         <v>2.1157246731409157E-3</v>
       </c>
     </row>
-    <row r="127" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E127" t="s">
+        <v>20</v>
+      </c>
       <c r="F127" s="5" t="s">
         <v>167</v>
       </c>
@@ -2773,7 +3137,10 @@
         <v>2.1030454639225657E-3</v>
       </c>
     </row>
-    <row r="128" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E128" t="s">
+        <v>20</v>
+      </c>
       <c r="F128" s="5" t="s">
         <v>168</v>
       </c>
@@ -2781,7 +3148,10 @@
         <v>2.1354289190834994E-3</v>
       </c>
     </row>
-    <row r="129" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E129" t="s">
+        <v>20</v>
+      </c>
       <c r="F129" s="5" t="s">
         <v>169</v>
       </c>
@@ -2789,7 +3159,10 @@
         <v>3.4868466350319238E-3</v>
       </c>
     </row>
-    <row r="130" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E130" t="s">
+        <v>20</v>
+      </c>
       <c r="F130" s="5" t="s">
         <v>170</v>
       </c>
@@ -2797,7 +3170,10 @@
         <v>3.7465609924034722E-3</v>
       </c>
     </row>
-    <row r="131" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E131" t="s">
+        <v>20</v>
+      </c>
       <c r="F131" s="5" t="s">
         <v>171</v>
       </c>
@@ -2805,7 +3181,10 @@
         <v>3.8363351495346561E-3</v>
       </c>
     </row>
-    <row r="132" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E132" t="s">
+        <v>20</v>
+      </c>
       <c r="F132" s="5" t="s">
         <v>172</v>
       </c>
@@ -2813,7 +3192,10 @@
         <v>3.9252603467314065E-3</v>
       </c>
     </row>
-    <row r="133" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E133" t="s">
+        <v>20</v>
+      </c>
       <c r="F133" s="5" t="s">
         <v>173</v>
       </c>
@@ -2821,7 +3203,10 @@
         <v>3.9185216809453369E-3</v>
       </c>
     </row>
-    <row r="134" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E134" t="s">
+        <v>20</v>
+      </c>
       <c r="F134" s="5" t="s">
         <v>174</v>
       </c>
@@ -2829,7 +3214,10 @@
         <v>3.8572738498128122E-3</v>
       </c>
     </row>
-    <row r="135" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E135" t="s">
+        <v>20</v>
+      </c>
       <c r="F135" s="5" t="s">
         <v>175</v>
       </c>
@@ -2837,7 +3225,10 @@
         <v>3.8571587374483128E-3</v>
       </c>
     </row>
-    <row r="136" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E136" t="s">
+        <v>20</v>
+      </c>
       <c r="F136" s="5" t="s">
         <v>176</v>
       </c>
@@ -2845,7 +3236,10 @@
         <v>3.7808132648726876E-3</v>
       </c>
     </row>
-    <row r="137" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E137" t="s">
+        <v>20</v>
+      </c>
       <c r="F137" s="5" t="s">
         <v>177</v>
       </c>
@@ -2853,7 +3247,10 @@
         <v>3.6535011894440242E-3</v>
       </c>
     </row>
-    <row r="138" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E138" t="s">
+        <v>20</v>
+      </c>
       <c r="F138" s="5" t="s">
         <v>178</v>
       </c>
@@ -2861,7 +3258,10 @@
         <v>3.5994225883241009E-3</v>
       </c>
     </row>
-    <row r="139" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E139" t="s">
+        <v>20</v>
+      </c>
       <c r="F139" s="5" t="s">
         <v>179</v>
       </c>
@@ -2869,7 +3269,10 @@
         <v>3.7273210104937847E-3</v>
       </c>
     </row>
-    <row r="140" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E140" t="s">
+        <v>20</v>
+      </c>
       <c r="F140" s="5" t="s">
         <v>180</v>
       </c>
@@ -2877,7 +3280,10 @@
         <v>3.6369294444876356E-3</v>
       </c>
     </row>
-    <row r="141" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E141" t="s">
+        <v>20</v>
+      </c>
       <c r="F141" s="5" t="s">
         <v>181</v>
       </c>
@@ -2885,7 +3291,10 @@
         <v>3.427430321328773E-3</v>
       </c>
     </row>
-    <row r="142" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E142" t="s">
+        <v>20</v>
+      </c>
       <c r="F142" s="5" t="s">
         <v>182</v>
       </c>
@@ -2893,7 +3302,10 @@
         <v>3.2891683132772807E-3</v>
       </c>
     </row>
-    <row r="143" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E143" t="s">
+        <v>20</v>
+      </c>
       <c r="F143" s="5" t="s">
         <v>183</v>
       </c>
@@ -2901,7 +3313,10 @@
         <v>2.6195806296988276E-3</v>
       </c>
     </row>
-    <row r="144" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E144" t="s">
+        <v>20</v>
+      </c>
       <c r="F144" s="5" t="s">
         <v>184</v>
       </c>
@@ -2909,7 +3324,10 @@
         <v>2.5977163603682508E-3</v>
       </c>
     </row>
-    <row r="145" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E145" t="s">
+        <v>20</v>
+      </c>
       <c r="F145" s="5" t="s">
         <v>185</v>
       </c>
@@ -2917,7 +3335,10 @@
         <v>2.4767679878004547E-3</v>
       </c>
     </row>
-    <row r="146" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E146" t="s">
+        <v>20</v>
+      </c>
       <c r="F146" s="5" t="s">
         <v>186</v>
       </c>
@@ -2925,7 +3346,10 @@
         <v>2.3998258473833913E-3</v>
       </c>
     </row>
-    <row r="147" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E147" t="s">
+        <v>20</v>
+      </c>
       <c r="F147" s="5" t="s">
         <v>187</v>
       </c>
@@ -2933,7 +3357,10 @@
         <v>2.2804771272474443E-3</v>
       </c>
     </row>
-    <row r="148" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E148" t="s">
+        <v>20</v>
+      </c>
       <c r="F148" s="5" t="s">
         <v>188</v>
       </c>
@@ -2941,7 +3368,10 @@
         <v>2.2121187792604221E-3</v>
       </c>
     </row>
-    <row r="149" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E149" t="s">
+        <v>20</v>
+      </c>
       <c r="F149" s="5" t="s">
         <v>189</v>
       </c>
@@ -2949,7 +3379,10 @@
         <v>2.1828551390856332E-3</v>
       </c>
     </row>
-    <row r="150" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E150" t="s">
+        <v>20</v>
+      </c>
       <c r="F150" s="5" t="s">
         <v>190</v>
       </c>
@@ -2957,7 +3390,10 @@
         <v>2.1605911847337646E-3</v>
       </c>
     </row>
-    <row r="151" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E151" t="s">
+        <v>20</v>
+      </c>
       <c r="F151" s="5" t="s">
         <v>191</v>
       </c>
@@ -2965,7 +3401,10 @@
         <v>2.1547690874779198E-3</v>
       </c>
     </row>
-    <row r="152" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E152" t="s">
+        <v>20</v>
+      </c>
       <c r="F152" s="5" t="s">
         <v>192</v>
       </c>
@@ -2973,7 +3412,10 @@
         <v>2.2035293897019657E-3</v>
       </c>
     </row>
-    <row r="153" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E153" t="s">
+        <v>20</v>
+      </c>
       <c r="F153" s="5" t="s">
         <v>193</v>
       </c>
@@ -2981,7 +3423,10 @@
         <v>2.3737450636316534E-3</v>
       </c>
     </row>
-    <row r="154" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E154" t="s">
+        <v>20</v>
+      </c>
       <c r="F154" s="5" t="s">
         <v>194</v>
       </c>
@@ -2989,7 +3434,10 @@
         <v>3.6907850265713751E-3</v>
       </c>
     </row>
-    <row r="155" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E155" t="s">
+        <v>20</v>
+      </c>
       <c r="F155" s="5" t="s">
         <v>195</v>
       </c>
@@ -2997,7 +3445,10 @@
         <v>3.8118477002691909E-3</v>
       </c>
     </row>
-    <row r="156" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E156" t="s">
+        <v>20</v>
+      </c>
       <c r="F156" s="5" t="s">
         <v>196</v>
       </c>
@@ -3005,7 +3456,10 @@
         <v>3.9157915847932842E-3</v>
       </c>
     </row>
-    <row r="157" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E157" t="s">
+        <v>20</v>
+      </c>
       <c r="F157" s="5" t="s">
         <v>197</v>
       </c>
@@ -3013,7 +3467,10 @@
         <v>3.9172718323185977E-3</v>
       </c>
     </row>
-    <row r="158" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="158" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E158" t="s">
+        <v>20</v>
+      </c>
       <c r="F158" s="5" t="s">
         <v>198</v>
       </c>
@@ -3021,7 +3478,10 @@
         <v>3.8528869361842775E-3</v>
       </c>
     </row>
-    <row r="159" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="159" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E159" t="s">
+        <v>20</v>
+      </c>
       <c r="F159" s="5" t="s">
         <v>199</v>
       </c>
@@ -3029,7 +3489,10 @@
         <v>3.841720774369132E-3</v>
       </c>
     </row>
-    <row r="160" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="160" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E160" t="s">
+        <v>20</v>
+      </c>
       <c r="F160" s="5" t="s">
         <v>200</v>
       </c>
@@ -3037,7 +3500,10 @@
         <v>3.7760933799173644E-3</v>
       </c>
     </row>
-    <row r="161" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="161" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E161" t="s">
+        <v>20</v>
+      </c>
       <c r="F161" s="5" t="s">
         <v>201</v>
       </c>
@@ -3045,7 +3511,10 @@
         <v>3.6831049545516252E-3</v>
       </c>
     </row>
-    <row r="162" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E162" t="s">
+        <v>20</v>
+      </c>
       <c r="F162" s="5" t="s">
         <v>202</v>
       </c>
@@ -3053,7 +3522,10 @@
         <v>3.7142242127701009E-3</v>
       </c>
     </row>
-    <row r="163" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="163" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E163" t="s">
+        <v>20</v>
+      </c>
       <c r="F163" s="5" t="s">
         <v>203</v>
       </c>
@@ -3061,7 +3533,10 @@
         <v>3.9097159281999061E-3</v>
       </c>
     </row>
-    <row r="164" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="164" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E164" t="s">
+        <v>20</v>
+      </c>
       <c r="F164" s="5" t="s">
         <v>204</v>
       </c>
@@ -3069,7 +3544,10 @@
         <v>3.7858763568529444E-3</v>
       </c>
     </row>
-    <row r="165" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="165" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E165" t="s">
+        <v>20</v>
+      </c>
       <c r="F165" s="5" t="s">
         <v>205</v>
       </c>
@@ -3077,7 +3555,10 @@
         <v>3.5481350899944164E-3</v>
       </c>
     </row>
-    <row r="166" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="166" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E166" t="s">
+        <v>20</v>
+      </c>
       <c r="F166" s="5" t="s">
         <v>206</v>
       </c>
@@ -3085,7 +3566,10 @@
         <v>3.3567575066477352E-3</v>
       </c>
     </row>
-    <row r="167" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="167" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E167" t="s">
+        <v>20</v>
+      </c>
       <c r="F167" s="5" t="s">
         <v>207</v>
       </c>
@@ -3093,7 +3577,10 @@
         <v>2.7264638458881891E-3</v>
       </c>
     </row>
-    <row r="168" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="168" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E168" t="s">
+        <v>20</v>
+      </c>
       <c r="F168" s="5" t="s">
         <v>208</v>
       </c>
@@ -3101,7 +3588,10 @@
         <v>2.6897859764943512E-3</v>
       </c>
     </row>
-    <row r="169" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="169" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E169" t="s">
+        <v>20</v>
+      </c>
       <c r="F169" s="5" t="s">
         <v>209</v>
       </c>
@@ -3109,7 +3599,10 @@
         <v>2.5322252800329221E-3</v>
       </c>
     </row>
-    <row r="170" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="170" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E170" t="s">
+        <v>20</v>
+      </c>
       <c r="F170" s="5" t="s">
         <v>210</v>
       </c>
@@ -3117,7 +3610,10 @@
         <v>2.3169011590463071E-3</v>
       </c>
     </row>
-    <row r="171" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="171" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E171" t="s">
+        <v>20</v>
+      </c>
       <c r="F171" s="5" t="s">
         <v>211</v>
       </c>
@@ -3125,7 +3621,10 @@
         <v>2.2034275270101239E-3</v>
       </c>
     </row>
-    <row r="172" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="172" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E172" t="s">
+        <v>20</v>
+      </c>
       <c r="F172" s="5" t="s">
         <v>212</v>
       </c>
@@ -3133,7 +3632,10 @@
         <v>2.1548570943389265E-3</v>
       </c>
     </row>
-    <row r="173" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="173" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E173" t="s">
+        <v>20</v>
+      </c>
       <c r="F173" s="5" t="s">
         <v>213</v>
       </c>
@@ -3141,7 +3643,10 @@
         <v>2.1528260768424773E-3</v>
       </c>
     </row>
-    <row r="174" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E174" t="s">
+        <v>20</v>
+      </c>
       <c r="F174" s="5" t="s">
         <v>214</v>
       </c>
@@ -3149,7 +3654,10 @@
         <v>2.1588244550667913E-3</v>
       </c>
     </row>
-    <row r="175" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="175" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E175" t="s">
+        <v>20</v>
+      </c>
       <c r="F175" s="5" t="s">
         <v>215</v>
       </c>
@@ -3157,7 +3665,10 @@
         <v>2.1548768509187521E-3</v>
       </c>
     </row>
-    <row r="176" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="176" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E176" t="s">
+        <v>20</v>
+      </c>
       <c r="F176" s="5" t="s">
         <v>216</v>
       </c>
@@ -3165,7 +3676,10 @@
         <v>2.1961658782249285E-3</v>
       </c>
     </row>
-    <row r="177" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="177" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E177" t="s">
+        <v>20</v>
+      </c>
       <c r="F177" s="5" t="s">
         <v>217</v>
       </c>
@@ -3173,7 +3687,10 @@
         <v>3.8059810354896979E-3</v>
       </c>
     </row>
-    <row r="178" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="178" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E178" t="s">
+        <v>20</v>
+      </c>
       <c r="F178" s="5" t="s">
         <v>218</v>
       </c>
@@ -3181,7 +3698,10 @@
         <v>4.0259560150362949E-3</v>
       </c>
     </row>
-    <row r="179" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="179" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E179" t="s">
+        <v>20</v>
+      </c>
       <c r="F179" s="5" t="s">
         <v>219</v>
       </c>
@@ -3189,7 +3709,10 @@
         <v>4.0558647929351353E-3</v>
       </c>
     </row>
-    <row r="180" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="180" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E180" t="s">
+        <v>20</v>
+      </c>
       <c r="F180" s="5" t="s">
         <v>220</v>
       </c>
@@ -3197,7 +3720,10 @@
         <v>4.1113869905780309E-3</v>
       </c>
     </row>
-    <row r="181" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="181" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E181" t="s">
+        <v>20</v>
+      </c>
       <c r="F181" s="5" t="s">
         <v>221</v>
       </c>
@@ -3205,7 +3731,10 @@
         <v>4.0609614577722013E-3</v>
       </c>
     </row>
-    <row r="182" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="182" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E182" t="s">
+        <v>20</v>
+      </c>
       <c r="F182" s="5" t="s">
         <v>222</v>
       </c>
@@ -3213,7 +3742,10 @@
         <v>3.9716398497537915E-3</v>
       </c>
     </row>
-    <row r="183" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="183" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E183" t="s">
+        <v>20</v>
+      </c>
       <c r="F183" s="5" t="s">
         <v>223</v>
       </c>
@@ -3221,7 +3753,10 @@
         <v>3.9830050718519198E-3</v>
       </c>
     </row>
-    <row r="184" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="184" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E184" t="s">
+        <v>20</v>
+      </c>
       <c r="F184" s="5" t="s">
         <v>224</v>
       </c>
@@ -3229,7 +3764,10 @@
         <v>3.9191080304177986E-3</v>
       </c>
     </row>
-    <row r="185" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="185" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E185" t="s">
+        <v>20</v>
+      </c>
       <c r="F185" s="5" t="s">
         <v>225</v>
       </c>
@@ -3237,7 +3775,10 @@
         <v>3.8051106856841041E-3</v>
       </c>
     </row>
-    <row r="186" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="186" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E186" t="s">
+        <v>20</v>
+      </c>
       <c r="F186" s="5" t="s">
         <v>226</v>
       </c>
@@ -3245,7 +3786,10 @@
         <v>3.8042352267768473E-3</v>
       </c>
     </row>
-    <row r="187" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="187" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E187" t="s">
+        <v>20</v>
+      </c>
       <c r="F187" s="5" t="s">
         <v>227</v>
       </c>
@@ -3253,7 +3797,10 @@
         <v>3.9628940905771879E-3</v>
       </c>
     </row>
-    <row r="188" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="188" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E188" t="s">
+        <v>20</v>
+      </c>
       <c r="F188" s="5" t="s">
         <v>228</v>
       </c>
@@ -3261,7 +3808,10 @@
         <v>3.8352309190072781E-3</v>
       </c>
     </row>
-    <row r="189" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="189" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E189" t="s">
+        <v>20</v>
+      </c>
       <c r="F189" s="5" t="s">
         <v>229</v>
       </c>
@@ -3269,7 +3819,10 @@
         <v>3.6454073117378407E-3</v>
       </c>
     </row>
-    <row r="190" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="190" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E190" t="s">
+        <v>20</v>
+      </c>
       <c r="F190" s="5" t="s">
         <v>230</v>
       </c>
@@ -3277,7 +3830,10 @@
         <v>3.5071623634088992E-3</v>
       </c>
     </row>
-    <row r="191" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="191" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E191" t="s">
+        <v>20</v>
+      </c>
       <c r="F191" s="5" t="s">
         <v>231</v>
       </c>
@@ -3285,7 +3841,10 @@
         <v>2.7761050973227814E-3</v>
       </c>
     </row>
-    <row r="192" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="192" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E192" t="s">
+        <v>20</v>
+      </c>
       <c r="F192" s="5" t="s">
         <v>232</v>
       </c>
@@ -3293,7 +3852,10 @@
         <v>2.7129168363266959E-3</v>
       </c>
     </row>
-    <row r="193" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="193" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E193" t="s">
+        <v>20</v>
+      </c>
       <c r="F193" s="5" t="s">
         <v>233</v>
       </c>
@@ -3301,7 +3863,10 @@
         <v>2.5539026695247618E-3</v>
       </c>
     </row>
-    <row r="194" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="194" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E194" t="s">
+        <v>20</v>
+      </c>
       <c r="F194" s="5" t="s">
         <v>234</v>
       </c>
@@ -3309,7 +3874,10 @@
         <v>2.3147275277305072E-3</v>
       </c>
     </row>
-    <row r="195" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="195" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E195" t="s">
+        <v>20</v>
+      </c>
       <c r="F195" s="5" t="s">
         <v>235</v>
       </c>
@@ -3317,7 +3885,10 @@
         <v>2.1855708064491101E-3</v>
       </c>
     </row>
-    <row r="196" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="196" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E196" t="s">
+        <v>20</v>
+      </c>
       <c r="F196" s="5" t="s">
         <v>236</v>
       </c>
@@ -3325,7 +3896,10 @@
         <v>2.118275648394786E-3</v>
       </c>
     </row>
-    <row r="197" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="197" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E197" t="s">
+        <v>20</v>
+      </c>
       <c r="F197" s="5" t="s">
         <v>237</v>
       </c>
@@ -3333,7 +3907,10 @@
         <v>2.0937984395059169E-3</v>
       </c>
     </row>
-    <row r="198" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="198" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E198" t="s">
+        <v>20</v>
+      </c>
       <c r="F198" s="5" t="s">
         <v>238</v>
       </c>
@@ -3341,7 +3918,10 @@
         <v>2.0925090615135514E-3</v>
       </c>
     </row>
-    <row r="199" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="199" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E199" t="s">
+        <v>20</v>
+      </c>
       <c r="F199" s="5" t="s">
         <v>239</v>
       </c>
@@ -3349,7 +3929,10 @@
         <v>2.131128020275915E-3</v>
       </c>
     </row>
-    <row r="200" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="200" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E200" t="s">
+        <v>20</v>
+      </c>
       <c r="F200" s="5" t="s">
         <v>240</v>
       </c>
@@ -3357,7 +3940,10 @@
         <v>2.2365943599355468E-3</v>
       </c>
     </row>
-    <row r="201" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="201" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E201" t="s">
+        <v>20</v>
+      </c>
       <c r="F201" s="5" t="s">
         <v>241</v>
       </c>
@@ -3365,7 +3951,10 @@
         <v>3.7330912437496038E-3</v>
       </c>
     </row>
-    <row r="202" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="202" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E202" t="s">
+        <v>20</v>
+      </c>
       <c r="F202" s="5" t="s">
         <v>242</v>
       </c>
@@ -3373,7 +3962,10 @@
         <v>3.9299189858786982E-3</v>
       </c>
     </row>
-    <row r="203" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="203" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E203" t="s">
+        <v>20</v>
+      </c>
       <c r="F203" s="5" t="s">
         <v>243</v>
       </c>
@@ -3381,7 +3973,10 @@
         <v>3.9572117449196741E-3</v>
       </c>
     </row>
-    <row r="204" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="204" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E204" t="s">
+        <v>20</v>
+      </c>
       <c r="F204" s="5" t="s">
         <v>244</v>
       </c>
@@ -3389,7 +3984,10 @@
         <v>4.0114613460069896E-3</v>
       </c>
     </row>
-    <row r="205" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="205" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E205" t="s">
+        <v>20</v>
+      </c>
       <c r="F205" s="5" t="s">
         <v>245</v>
       </c>
@@ -3397,7 +3995,10 @@
         <v>3.9883867540739274E-3</v>
       </c>
     </row>
-    <row r="206" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="206" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E206" t="s">
+        <v>20</v>
+      </c>
       <c r="F206" s="5" t="s">
         <v>246</v>
       </c>
@@ -3405,7 +4006,10 @@
         <v>3.9106539518286351E-3</v>
       </c>
     </row>
-    <row r="207" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="207" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E207" t="s">
+        <v>20</v>
+      </c>
       <c r="F207" s="5" t="s">
         <v>247</v>
       </c>
@@ -3413,7 +4017,10 @@
         <v>3.9146372383109581E-3</v>
       </c>
     </row>
-    <row r="208" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="208" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E208" t="s">
+        <v>20</v>
+      </c>
       <c r="F208" s="5" t="s">
         <v>248</v>
       </c>
@@ -3421,7 +4028,10 @@
         <v>3.841111244567816E-3</v>
       </c>
     </row>
-    <row r="209" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="209" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E209" t="s">
+        <v>20</v>
+      </c>
       <c r="F209" s="5" t="s">
         <v>249</v>
       </c>
@@ -3429,7 +4039,10 @@
         <v>3.7121124113501562E-3</v>
       </c>
     </row>
-    <row r="210" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="210" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E210" t="s">
+        <v>20</v>
+      </c>
       <c r="F210" s="5" t="s">
         <v>250</v>
       </c>
@@ -3437,7 +4050,10 @@
         <v>3.7047989187223821E-3</v>
       </c>
     </row>
-    <row r="211" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="211" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E211" t="s">
+        <v>20</v>
+      </c>
       <c r="F211" s="5" t="s">
         <v>251</v>
       </c>
@@ -3445,7 +4061,10 @@
         <v>3.9319673493260696E-3</v>
       </c>
     </row>
-    <row r="212" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="212" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E212" t="s">
+        <v>20</v>
+      </c>
       <c r="F212" s="5" t="s">
         <v>252</v>
       </c>
@@ -3453,7 +4072,10 @@
         <v>3.8761202272148193E-3</v>
       </c>
     </row>
-    <row r="213" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="213" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E213" t="s">
+        <v>20</v>
+      </c>
       <c r="F213" s="5" t="s">
         <v>253</v>
       </c>
@@ -3461,7 +4083,10 @@
         <v>3.7148944123763508E-3</v>
       </c>
     </row>
-    <row r="214" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="214" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E214" t="s">
+        <v>20</v>
+      </c>
       <c r="F214" s="5" t="s">
         <v>254</v>
       </c>
@@ -3469,7 +4094,10 @@
         <v>3.5628888518713163E-3</v>
       </c>
     </row>
-    <row r="215" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="215" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E215" t="s">
+        <v>20</v>
+      </c>
       <c r="F215" s="5" t="s">
         <v>255</v>
       </c>
@@ -3477,7 +4105,10 @@
         <v>3.3967992719250973E-3</v>
       </c>
     </row>
-    <row r="216" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="216" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E216" t="s">
+        <v>20</v>
+      </c>
       <c r="F216" s="5" t="s">
         <v>256</v>
       </c>
@@ -3485,7 +4116,10 @@
         <v>2.6787498187477192E-3</v>
       </c>
     </row>
-    <row r="217" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="217" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E217" t="s">
+        <v>20</v>
+      </c>
       <c r="F217" s="5" t="s">
         <v>257</v>
       </c>
@@ -3493,7 +4127,10 @@
         <v>2.5143496334384175E-3</v>
       </c>
     </row>
-    <row r="218" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="218" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E218" t="s">
+        <v>20</v>
+      </c>
       <c r="F218" s="5" t="s">
         <v>258</v>
       </c>
@@ -3501,7 +4138,10 @@
         <v>2.4480115095223934E-3</v>
       </c>
     </row>
-    <row r="219" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="219" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E219" t="s">
+        <v>20</v>
+      </c>
       <c r="F219" s="5" t="s">
         <v>259</v>
       </c>
@@ -3509,7 +4149,10 @@
         <v>2.3185396495614143E-3</v>
       </c>
     </row>
-    <row r="220" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="220" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E220" t="s">
+        <v>20</v>
+      </c>
       <c r="F220" s="5" t="s">
         <v>260</v>
       </c>
@@ -3517,7 +4160,10 @@
         <v>2.2509420387291745E-3</v>
       </c>
     </row>
-    <row r="221" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="221" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E221" t="s">
+        <v>20</v>
+      </c>
       <c r="F221" s="5" t="s">
         <v>261</v>
       </c>
@@ -3525,7 +4171,10 @@
         <v>2.2279077706859655E-3</v>
       </c>
     </row>
-    <row r="222" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="222" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E222" t="s">
+        <v>20</v>
+      </c>
       <c r="F222" s="5" t="s">
         <v>262</v>
       </c>
@@ -3533,7 +4182,10 @@
         <v>2.2295773414820514E-3</v>
       </c>
     </row>
-    <row r="223" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="223" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E223" t="s">
+        <v>20</v>
+      </c>
       <c r="F223" s="5" t="s">
         <v>263</v>
       </c>
@@ -3541,7 +4193,10 @@
         <v>2.2749785828786915E-3</v>
       </c>
     </row>
-    <row r="224" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="224" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E224" t="s">
+        <v>20</v>
+      </c>
       <c r="F224" s="5" t="s">
         <v>264</v>
       </c>
@@ -3549,7 +4204,10 @@
         <v>2.4171181905044284E-3</v>
       </c>
     </row>
-    <row r="225" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="225" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E225" t="s">
+        <v>20</v>
+      </c>
       <c r="F225" s="5" t="s">
         <v>265</v>
       </c>
@@ -3557,7 +4215,10 @@
         <v>4.1046069691354024E-3</v>
       </c>
     </row>
-    <row r="226" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="226" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E226" t="s">
+        <v>20</v>
+      </c>
       <c r="F226" s="5" t="s">
         <v>266</v>
       </c>
@@ -3565,7 +4226,10 @@
         <v>4.2456601124996147E-3</v>
       </c>
     </row>
-    <row r="227" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="227" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E227" t="s">
+        <v>20</v>
+      </c>
       <c r="F227" s="5" t="s">
         <v>267</v>
       </c>
@@ -3573,7 +4237,10 @@
         <v>4.2477804510917087E-3</v>
       </c>
     </row>
-    <row r="228" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="228" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E228" t="s">
+        <v>20</v>
+      </c>
       <c r="F228" s="5" t="s">
         <v>268</v>
       </c>
@@ -3581,7 +4248,10 @@
         <v>4.3037451159746564E-3</v>
       </c>
     </row>
-    <row r="229" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="229" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E229" t="s">
+        <v>20</v>
+      </c>
       <c r="F229" s="5" t="s">
         <v>269</v>
       </c>
@@ -3589,7 +4259,10 @@
         <v>4.281782167065885E-3</v>
       </c>
     </row>
-    <row r="230" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="230" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E230" t="s">
+        <v>20</v>
+      </c>
       <c r="F230" s="5" t="s">
         <v>270</v>
       </c>
@@ -3597,7 +4270,10 @@
         <v>4.2066410093443921E-3</v>
       </c>
     </row>
-    <row r="231" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="231" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E231" t="s">
+        <v>20</v>
+      </c>
       <c r="F231" s="5" t="s">
         <v>271</v>
       </c>
@@ -3605,7 +4281,10 @@
         <v>4.2185460943523784E-3</v>
       </c>
     </row>
-    <row r="232" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="232" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E232" t="s">
+        <v>20</v>
+      </c>
       <c r="F232" s="5" t="s">
         <v>272</v>
       </c>
@@ -3613,7 +4292,10 @@
         <v>4.1734225849871668E-3</v>
       </c>
     </row>
-    <row r="233" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="233" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E233" t="s">
+        <v>20</v>
+      </c>
       <c r="F233" s="5" t="s">
         <v>273</v>
       </c>
@@ -3621,7 +4303,10 @@
         <v>4.107884964968566E-3</v>
       </c>
     </row>
-    <row r="234" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="234" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E234" t="s">
+        <v>20</v>
+      </c>
       <c r="F234" s="5" t="s">
         <v>274</v>
       </c>
@@ -3629,7 +4314,10 @@
         <v>4.2536481731266697E-3</v>
       </c>
     </row>
-    <row r="235" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="235" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E235" t="s">
+        <v>20</v>
+      </c>
       <c r="F235" s="5" t="s">
         <v>275</v>
       </c>
@@ -3637,7 +4325,10 @@
         <v>4.5530054735095455E-3</v>
       </c>
     </row>
-    <row r="236" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="236" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E236" t="s">
+        <v>20</v>
+      </c>
       <c r="F236" s="5" t="s">
         <v>276</v>
       </c>
@@ -3645,7 +4336,10 @@
         <v>4.3858691336035628E-3</v>
       </c>
     </row>
-    <row r="237" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="237" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E237" t="s">
+        <v>20</v>
+      </c>
       <c r="F237" s="5" t="s">
         <v>277</v>
       </c>
@@ -3653,7 +4347,10 @@
         <v>4.1675311098118405E-3</v>
       </c>
     </row>
-    <row r="238" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="238" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E238" t="s">
+        <v>20</v>
+      </c>
       <c r="F238" s="5" t="s">
         <v>278</v>
       </c>
@@ -3661,7 +4358,10 @@
         <v>3.8921468783449514E-3</v>
       </c>
     </row>
-    <row r="239" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="239" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E239" t="s">
+        <v>20</v>
+      </c>
       <c r="F239" s="5" t="s">
         <v>279</v>
       </c>
@@ -3669,7 +4369,10 @@
         <v>3.6119813030443819E-3</v>
       </c>
     </row>
-    <row r="240" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="240" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E240" t="s">
+        <v>20</v>
+      </c>
       <c r="F240" s="5" t="s">
         <v>280</v>
       </c>
@@ -3677,7 +4380,10 @@
         <v>2.8769192515118486E-3</v>
       </c>
     </row>
-    <row r="241" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="241" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E241" t="s">
+        <v>20</v>
+      </c>
       <c r="F241" s="5" t="s">
         <v>281</v>
       </c>
@@ -3685,7 +4391,10 @@
         <v>2.6642749150944194E-3</v>
       </c>
     </row>
-    <row r="242" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="242" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E242" t="s">
+        <v>20</v>
+      </c>
       <c r="F242" s="5" t="s">
         <v>282</v>
       </c>
@@ -3693,7 +4402,10 @@
         <v>2.4713274670096945E-3</v>
       </c>
     </row>
-    <row r="243" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="243" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E243" t="s">
+        <v>20</v>
+      </c>
       <c r="F243" s="5" t="s">
         <v>283</v>
       </c>
@@ -3701,7 +4413,10 @@
         <v>2.3514040159183305E-3</v>
       </c>
     </row>
-    <row r="244" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="244" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E244" t="s">
+        <v>20</v>
+      </c>
       <c r="F244" s="5" t="s">
         <v>284</v>
       </c>
@@ -3709,7 +4424,10 @@
         <v>2.2887435991065376E-3</v>
       </c>
     </row>
-    <row r="245" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="245" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E245" t="s">
+        <v>20</v>
+      </c>
       <c r="F245" s="5" t="s">
         <v>285</v>
       </c>
@@ -3717,7 +4435,10 @@
         <v>2.2682122289824111E-3</v>
       </c>
     </row>
-    <row r="246" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="246" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E246" t="s">
+        <v>20</v>
+      </c>
       <c r="F246" s="5" t="s">
         <v>286</v>
       </c>
@@ -3725,7 +4446,10 @@
         <v>2.2759752456434422E-3</v>
       </c>
     </row>
-    <row r="247" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="247" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E247" t="s">
+        <v>20</v>
+      </c>
       <c r="F247" s="5" t="s">
         <v>287</v>
       </c>
@@ -3733,7 +4457,10 @@
         <v>2.3290723337268155E-3</v>
       </c>
     </row>
-    <row r="248" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="248" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E248" t="s">
+        <v>20</v>
+      </c>
       <c r="F248" s="5" t="s">
         <v>288</v>
       </c>
@@ -3741,7 +4468,10 @@
         <v>2.4695829749681979E-3</v>
       </c>
     </row>
-    <row r="249" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="249" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E249" t="s">
+        <v>20</v>
+      </c>
       <c r="F249" s="5" t="s">
         <v>289</v>
       </c>
@@ -3749,7 +4479,10 @@
         <v>4.3663011872027051E-3</v>
       </c>
     </row>
-    <row r="250" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="250" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E250" t="s">
+        <v>20</v>
+      </c>
       <c r="F250" s="5" t="s">
         <v>290</v>
       </c>
@@ -3757,7 +4490,10 @@
         <v>4.5365691257457852E-3</v>
       </c>
     </row>
-    <row r="251" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="251" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E251" t="s">
+        <v>20</v>
+      </c>
       <c r="F251" s="5" t="s">
         <v>291</v>
       </c>
@@ -3765,7 +4501,10 @@
         <v>4.526458699098625E-3</v>
       </c>
     </row>
-    <row r="252" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="252" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E252" t="s">
+        <v>20</v>
+      </c>
       <c r="F252" s="5" t="s">
         <v>292</v>
       </c>
@@ -3773,7 +4512,10 @@
         <v>4.5509843240466108E-3</v>
       </c>
     </row>
-    <row r="253" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="253" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E253" t="s">
+        <v>20</v>
+      </c>
       <c r="F253" s="5" t="s">
         <v>293</v>
       </c>
@@ -3781,7 +4523,10 @@
         <v>4.4801149101947914E-3</v>
       </c>
     </row>
-    <row r="254" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="254" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E254" t="s">
+        <v>20</v>
+      </c>
       <c r="F254" s="5" t="s">
         <v>294</v>
       </c>
@@ -3789,7 +4534,10 @@
         <v>4.3739749498637216E-3</v>
       </c>
     </row>
-    <row r="255" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="255" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E255" t="s">
+        <v>20</v>
+      </c>
       <c r="F255" s="5" t="s">
         <v>295</v>
       </c>
@@ -3797,7 +4545,10 @@
         <v>4.3729504458547052E-3</v>
       </c>
     </row>
-    <row r="256" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="256" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E256" t="s">
+        <v>20</v>
+      </c>
       <c r="F256" s="5" t="s">
         <v>296</v>
       </c>
@@ -3805,7 +4556,10 @@
         <v>4.3183299087256634E-3</v>
       </c>
     </row>
-    <row r="257" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="257" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E257" t="s">
+        <v>20</v>
+      </c>
       <c r="F257" s="5" t="s">
         <v>297</v>
       </c>
@@ -3813,7 +4567,10 @@
         <v>4.2508355185061596E-3</v>
       </c>
     </row>
-    <row r="258" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="258" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E258" t="s">
+        <v>20</v>
+      </c>
       <c r="F258" s="5" t="s">
         <v>298</v>
       </c>
@@ -3821,7 +4578,10 @@
         <v>4.4032068345551149E-3</v>
       </c>
     </row>
-    <row r="259" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="259" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E259" t="s">
+        <v>20</v>
+      </c>
       <c r="F259" s="5" t="s">
         <v>299</v>
       </c>
@@ -3829,7 +4589,10 @@
         <v>4.7375723460286838E-3</v>
       </c>
     </row>
-    <row r="260" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="260" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E260" t="s">
+        <v>20</v>
+      </c>
       <c r="F260" s="5" t="s">
         <v>300</v>
       </c>
@@ -3837,7 +4600,10 @@
         <v>4.610466782288292E-3</v>
       </c>
     </row>
-    <row r="261" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="261" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E261" t="s">
+        <v>20</v>
+      </c>
       <c r="F261" s="5" t="s">
         <v>301</v>
       </c>
@@ -3845,7 +4611,10 @@
         <v>4.3471074645257323E-3</v>
       </c>
     </row>
-    <row r="262" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="262" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E262" t="s">
+        <v>20</v>
+      </c>
       <c r="F262" s="5" t="s">
         <v>302</v>
       </c>
@@ -3853,7 +4622,10 @@
         <v>4.0616158187319062E-3</v>
       </c>
     </row>
-    <row r="263" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="263" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E263" t="s">
+        <v>20</v>
+      </c>
       <c r="F263" s="5" t="s">
         <v>303</v>
       </c>
@@ -3861,7 +4633,10 @@
         <v>3.0664562989816558E-3</v>
       </c>
     </row>
-    <row r="264" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="264" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E264" t="s">
+        <v>20</v>
+      </c>
       <c r="F264" s="5" t="s">
         <v>304</v>
       </c>
@@ -3869,7 +4644,10 @@
         <v>2.842431422858868E-3</v>
       </c>
     </row>
-    <row r="265" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="265" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E265" t="s">
+        <v>20</v>
+      </c>
       <c r="F265" s="5" t="s">
         <v>305</v>
       </c>
@@ -3877,7 +4655,10 @@
         <v>2.6270800020386574E-3</v>
       </c>
     </row>
-    <row r="266" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="266" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E266" t="s">
+        <v>20</v>
+      </c>
       <c r="F266" s="5" t="s">
         <v>306</v>
       </c>
@@ -3885,7 +4666,10 @@
         <v>2.7411031971422417E-3</v>
       </c>
     </row>
-    <row r="267" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="267" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E267" t="s">
+        <v>20</v>
+      </c>
       <c r="F267" s="5" t="s">
         <v>307</v>
       </c>
@@ -3893,7 +4677,10 @@
         <v>2.6098400428207075E-3</v>
       </c>
     </row>
-    <row r="268" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="268" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E268" t="s">
+        <v>20</v>
+      </c>
       <c r="F268" s="5" t="s">
         <v>308</v>
       </c>
@@ -3901,7 +4688,10 @@
         <v>2.539424557690192E-3</v>
       </c>
     </row>
-    <row r="269" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="269" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E269" t="s">
+        <v>20</v>
+      </c>
       <c r="F269" s="5" t="s">
         <v>309</v>
       </c>
@@ -3909,7 +4699,10 @@
         <v>2.5144186041160697E-3</v>
       </c>
     </row>
-    <row r="270" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="270" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E270" t="s">
+        <v>20</v>
+      </c>
       <c r="F270" s="5" t="s">
         <v>310</v>
       </c>
@@ -3917,7 +4710,10 @@
         <v>2.5153876691089913E-3</v>
       </c>
     </row>
-    <row r="271" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="271" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E271" t="s">
+        <v>20</v>
+      </c>
       <c r="F271" s="5" t="s">
         <v>311</v>
       </c>
@@ -3925,7 +4721,10 @@
         <v>2.5641069713790393E-3</v>
       </c>
     </row>
-    <row r="272" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="272" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E272" t="s">
+        <v>20</v>
+      </c>
       <c r="F272" s="5" t="s">
         <v>312</v>
       </c>
@@ -3933,7 +4732,10 @@
         <v>2.7191097075738185E-3</v>
       </c>
     </row>
-    <row r="273" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="273" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E273" t="s">
+        <v>20</v>
+      </c>
       <c r="F273" s="5" t="s">
         <v>313</v>
       </c>
@@ -3941,7 +4743,10 @@
         <v>4.5019928381251463E-3</v>
       </c>
     </row>
-    <row r="274" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="274" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E274" t="s">
+        <v>20</v>
+      </c>
       <c r="F274" s="5" t="s">
         <v>314</v>
       </c>
@@ -3949,7 +4754,10 @@
         <v>4.671878684731237E-3</v>
       </c>
     </row>
-    <row r="275" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="275" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E275" t="s">
+        <v>20</v>
+      </c>
       <c r="F275" s="5" t="s">
         <v>315</v>
       </c>
@@ -3957,7 +4765,10 @@
         <v>4.6649783313536634E-3</v>
       </c>
     </row>
-    <row r="276" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="276" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E276" t="s">
+        <v>20</v>
+      </c>
       <c r="F276" s="5" t="s">
         <v>316</v>
       </c>
@@ -3965,7 +4776,10 @@
         <v>4.7159355079913435E-3</v>
       </c>
     </row>
-    <row r="277" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="277" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E277" t="s">
+        <v>20</v>
+      </c>
       <c r="F277" s="5" t="s">
         <v>317</v>
       </c>
@@ -3973,7 +4787,10 @@
         <v>4.6889693102986213E-3</v>
       </c>
     </row>
-    <row r="278" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="278" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E278" t="s">
+        <v>20</v>
+      </c>
       <c r="F278" s="5" t="s">
         <v>318</v>
       </c>
@@ -3981,7 +4798,10 @@
         <v>4.607583738894667E-3</v>
       </c>
     </row>
-    <row r="279" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="279" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E279" t="s">
+        <v>20</v>
+      </c>
       <c r="F279" s="5" t="s">
         <v>319</v>
       </c>
@@ -3989,7 +4809,10 @@
         <v>4.6168261339171049E-3</v>
       </c>
     </row>
-    <row r="280" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="280" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E280" t="s">
+        <v>20</v>
+      </c>
       <c r="F280" s="5" t="s">
         <v>320</v>
       </c>
@@ -3997,7 +4820,10 @@
         <v>4.5721872501536115E-3</v>
       </c>
     </row>
-    <row r="281" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="281" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E281" t="s">
+        <v>20</v>
+      </c>
       <c r="F281" s="5" t="s">
         <v>321</v>
       </c>
@@ -4005,7 +4831,10 @@
         <v>4.5183450018892639E-3</v>
       </c>
     </row>
-    <row r="282" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="282" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E282" t="s">
+        <v>20</v>
+      </c>
       <c r="F282" s="5" t="s">
         <v>322</v>
       </c>
@@ -4013,7 +4842,10 @@
         <v>4.7060337200931111E-3</v>
       </c>
     </row>
-    <row r="283" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="283" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E283" t="s">
+        <v>20</v>
+      </c>
       <c r="F283" s="5" t="s">
         <v>323</v>
       </c>
@@ -4021,7 +4853,10 @@
         <v>5.0348316310255452E-3</v>
       </c>
     </row>
-    <row r="284" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="284" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E284" t="s">
+        <v>20</v>
+      </c>
       <c r="F284" s="5" t="s">
         <v>324</v>
       </c>
@@ -4029,7 +4864,10 @@
         <v>4.8999530401465869E-3</v>
       </c>
     </row>
-    <row r="285" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="285" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E285" t="s">
+        <v>20</v>
+      </c>
       <c r="F285" s="5" t="s">
         <v>325</v>
       </c>
@@ -4037,7 +4875,10 @@
         <v>4.627738897493996E-3</v>
       </c>
     </row>
-    <row r="286" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="286" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E286" t="s">
+        <v>20</v>
+      </c>
       <c r="F286" s="5" t="s">
         <v>326</v>
       </c>
@@ -4045,7 +4886,10 @@
         <v>4.345777119414208E-3</v>
       </c>
     </row>
-    <row r="287" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="287" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E287" t="s">
+        <v>20</v>
+      </c>
       <c r="F287" s="5" t="s">
         <v>327</v>
       </c>
@@ -4053,7 +4897,10 @@
         <v>3.3651708488425616E-3</v>
       </c>
     </row>
-    <row r="288" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="288" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E288" t="s">
+        <v>20</v>
+      </c>
       <c r="F288" s="5" t="s">
         <v>328</v>
       </c>
@@ -4061,7 +4908,10 @@
         <v>3.1416351604563833E-3</v>
       </c>
     </row>
-    <row r="289" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="289" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E289" t="s">
+        <v>20</v>
+      </c>
       <c r="F289" s="5" t="s">
         <v>329</v>
       </c>
@@ -4077,36 +4927,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="19.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>336</v>
-      </c>
-      <c r="B1">
-        <v>100</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4153,8 +4978,8 @@
         <v>5</v>
       </c>
       <c r="F2" s="4">
-        <f>24.4444444444444*3.6</f>
-        <v>87.999999999999844</v>
+        <f>24.4444444444444*3.6 *288/8760</f>
+        <v>2.8931506849315021</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -4174,8 +4999,8 @@
         <v>6</v>
       </c>
       <c r="F3" s="4">
-        <f>8.33333333333333*3.6</f>
-        <v>29.999999999999989</v>
+        <f>8.33333333333333*3.6 *288/8760</f>
+        <v>0.98630136986301331</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -4195,8 +5020,8 @@
         <v>7</v>
       </c>
       <c r="F4" s="4">
-        <f>13.8888888888889*3.6</f>
-        <v>50.000000000000043</v>
+        <f>13.8888888888889*3.6 * 288/8760</f>
+        <v>1.6438356164383576</v>
       </c>
     </row>
   </sheetData>
@@ -4205,12 +5030,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Y14" sqref="Y14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4281,11 +5106,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C289"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
